--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\Projects\My Console\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\Projects\AutoFillGoogleForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE82EF1-6A08-487A-8EC3-16E07D93C308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C7216E-CA2F-4322-80DB-3C4CBB76E21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3146CB5F-DF9C-49FC-9F22-B9B8FD9FCD46}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Nam</t>
   </si>
@@ -78,17 +78,46 @@
     <t>Link form</t>
   </si>
   <si>
-    <t>https://docs.google.com/forms/d/e/1FAIpQLSeH53cJrLRTG3e6Qv0ldXZYXDaNyl293BeOoyQNKhPcPm_E4g/viewform?usp=sf_link</t>
+    <t>Profile 7</t>
+  </si>
+  <si>
+    <t>Profile 5</t>
+  </si>
+  <si>
+    <t>Thuan ML</t>
+  </si>
+  <si>
+    <t>Profile 6</t>
+  </si>
+  <si>
+    <t>Thuan ML 1</t>
+  </si>
+  <si>
+    <t>Ha Noi1</t>
+  </si>
+  <si>
+    <t>Ha Noi 2</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/forms/d/e/1FAIpQLSe4EdBe-rg_3dzjE8kzkCD-M5_TQaTuvZxGebHnxU8Wiheijg/viewform?usp=sf_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,14 +140,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,9 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFD9F0E-6858-4D4D-8A58-8DED8625A854}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -445,7 +479,7 @@
     <col min="6" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -453,7 +487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -461,15 +495,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -486,7 +520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -502,8 +536,54 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>1234567890</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>1234567890</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{2282426C-8E18-4C11-9495-4485D90AC2AD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\Projects\AutoFillGoogleForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C7216E-CA2F-4322-80DB-3C4CBB76E21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF78AF3-3571-442C-85A2-27034B1E3C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3146CB5F-DF9C-49FC-9F22-B9B8FD9FCD46}"/>
   </bookViews>
@@ -465,9 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFD9F0E-6858-4D4D-8A58-8DED8625A854}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
